--- a/src/test/resources/Excel.xlsx
+++ b/src/test/resources/Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\antony.j\eclipse-workspace\Seleniumbasicpgm\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408E664C-20FD-4709-B67C-2CE54CFA0BCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B40E7E-D3CC-4ADD-B511-6B5C995CC45E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>UserName</t>
   </si>
@@ -33,17 +33,34 @@
     <t>Passsword</t>
   </si>
   <si>
-    <t>Test</t>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>user@phptravels.com</t>
+  </si>
+  <si>
+    <t>demouser</t>
+  </si>
+  <si>
+    <t>https://login.yahoo.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -66,13 +83,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -351,32 +371,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="39.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Excel.xlsx
+++ b/src/test/resources/Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\antony.j\eclipse-workspace\Seleniumbasicpgm\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B40E7E-D3CC-4ADD-B511-6B5C995CC45E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81ED850-2CAB-464C-8E48-FEDE21302398}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>UserName</t>
   </si>
@@ -36,13 +36,19 @@
     <t>URL</t>
   </si>
   <si>
-    <t>user@phptravels.com</t>
-  </si>
-  <si>
-    <t>demouser</t>
-  </si>
-  <si>
     <t>https://login.yahoo.com/</t>
+  </si>
+  <si>
+    <t>fshantony@yahoo.com</t>
+  </si>
+  <si>
+    <t>Welcome2JMJ</t>
+  </si>
+  <si>
+    <t>Dashurl</t>
+  </si>
+  <si>
+    <t>https://in.yahoo.com/?p=us1</t>
   </si>
 </sst>
 </file>
@@ -371,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -382,9 +388,10 @@
     <col min="1" max="1" width="39.44140625" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="3" max="3" width="39.88671875" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,19 +401,29 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{5D45C638-3199-41AC-9B37-83E9FD6B10D6}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{659990DA-F183-445F-8111-B24C8001C751}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>